--- a/testsets/Set D Resolution/Meetresultaten Resoltuion/verwerkte Metingen Resolutie.xlsx
+++ b/testsets/Set D Resolution/Meetresultaten Resoltuion/verwerkte Metingen Resolutie.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ties1\OneDrive\Bureaublad\STUDIE\HBO-ICT jaar 2019-2020\Vision\Github repo\HU-Vision-Ties-Mick\testsets\Set D Resolution\Meetresultaten Resoltuion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786ABFC2-F029-4467-93EF-4364479FA0CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E36486-9F5A-4F4F-BB10-FCE03D4670A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -703,37 +700,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>372</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>93</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>152</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1795,37 +1792,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>352</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3473,612 +3470,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Default</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>Intensity</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>Luma</v>
-          </cell>
-          <cell r="F37" t="str">
-            <v>Luminance</v>
-          </cell>
-          <cell r="G37" t="str">
-            <v>Luster</v>
-          </cell>
-          <cell r="H37" t="str">
-            <v>Value</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>1</v>
-          </cell>
-          <cell r="C38">
-            <v>0</v>
-          </cell>
-          <cell r="D38">
-            <v>0</v>
-          </cell>
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-          <cell r="F38">
-            <v>0</v>
-          </cell>
-          <cell r="G38">
-            <v>0</v>
-          </cell>
-          <cell r="H38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>2</v>
-          </cell>
-          <cell r="C39">
-            <v>12</v>
-          </cell>
-          <cell r="D39">
-            <v>26</v>
-          </cell>
-          <cell r="E39">
-            <v>14</v>
-          </cell>
-          <cell r="F39">
-            <v>16</v>
-          </cell>
-          <cell r="G39">
-            <v>50</v>
-          </cell>
-          <cell r="H39">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>3</v>
-          </cell>
-          <cell r="C40">
-            <v>0</v>
-          </cell>
-          <cell r="D40">
-            <v>0</v>
-          </cell>
-          <cell r="E40">
-            <v>0</v>
-          </cell>
-          <cell r="F40">
-            <v>0</v>
-          </cell>
-          <cell r="G40">
-            <v>0</v>
-          </cell>
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>4</v>
-          </cell>
-          <cell r="C41">
-            <v>19</v>
-          </cell>
-          <cell r="D41">
-            <v>8</v>
-          </cell>
-          <cell r="E41">
-            <v>4</v>
-          </cell>
-          <cell r="F41">
-            <v>6</v>
-          </cell>
-          <cell r="G41">
-            <v>0</v>
-          </cell>
-          <cell r="H41">
-            <v>74</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>5</v>
-          </cell>
-          <cell r="C42">
-            <v>28</v>
-          </cell>
-          <cell r="D42">
-            <v>0</v>
-          </cell>
-          <cell r="E42">
-            <v>4</v>
-          </cell>
-          <cell r="F42">
-            <v>4</v>
-          </cell>
-          <cell r="G42">
-            <v>0</v>
-          </cell>
-          <cell r="H42">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>6</v>
-          </cell>
-          <cell r="C43">
-            <v>0</v>
-          </cell>
-          <cell r="D43">
-            <v>0</v>
-          </cell>
-          <cell r="E43">
-            <v>0</v>
-          </cell>
-          <cell r="F43">
-            <v>0</v>
-          </cell>
-          <cell r="G43">
-            <v>0</v>
-          </cell>
-          <cell r="H43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>7</v>
-          </cell>
-          <cell r="C44">
-            <v>0</v>
-          </cell>
-          <cell r="D44">
-            <v>0</v>
-          </cell>
-          <cell r="E44">
-            <v>0</v>
-          </cell>
-          <cell r="F44">
-            <v>0</v>
-          </cell>
-          <cell r="G44">
-            <v>0</v>
-          </cell>
-          <cell r="H44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>8</v>
-          </cell>
-          <cell r="C45">
-            <v>0</v>
-          </cell>
-          <cell r="D45">
-            <v>0</v>
-          </cell>
-          <cell r="E45">
-            <v>0</v>
-          </cell>
-          <cell r="F45">
-            <v>0</v>
-          </cell>
-          <cell r="G45">
-            <v>0</v>
-          </cell>
-          <cell r="H45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>9</v>
-          </cell>
-          <cell r="C46">
-            <v>30</v>
-          </cell>
-          <cell r="D46">
-            <v>47</v>
-          </cell>
-          <cell r="E46">
-            <v>26</v>
-          </cell>
-          <cell r="F46">
-            <v>31</v>
-          </cell>
-          <cell r="G46">
-            <v>50</v>
-          </cell>
-          <cell r="H46">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>10</v>
-          </cell>
-          <cell r="C47">
-            <v>0</v>
-          </cell>
-          <cell r="D47">
-            <v>0</v>
-          </cell>
-          <cell r="E47">
-            <v>0</v>
-          </cell>
-          <cell r="F47">
-            <v>0</v>
-          </cell>
-          <cell r="G47">
-            <v>0</v>
-          </cell>
-          <cell r="H47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>11</v>
-          </cell>
-          <cell r="C48">
-            <v>0</v>
-          </cell>
-          <cell r="D48">
-            <v>0</v>
-          </cell>
-          <cell r="E48">
-            <v>0</v>
-          </cell>
-          <cell r="F48">
-            <v>0</v>
-          </cell>
-          <cell r="G48">
-            <v>0</v>
-          </cell>
-          <cell r="H48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>12</v>
-          </cell>
-          <cell r="C49">
-            <v>161</v>
-          </cell>
-          <cell r="D49">
-            <v>169</v>
-          </cell>
-          <cell r="E49">
-            <v>202</v>
-          </cell>
-          <cell r="F49">
-            <v>193</v>
-          </cell>
-          <cell r="G49">
-            <v>150</v>
-          </cell>
-          <cell r="H49">
-            <v>57</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Default</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>Intensity</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>Luma</v>
-          </cell>
-          <cell r="F51" t="str">
-            <v>Luminance</v>
-          </cell>
-          <cell r="G51" t="str">
-            <v>Luster</v>
-          </cell>
-          <cell r="H51" t="str">
-            <v>Value</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>1</v>
-          </cell>
-          <cell r="C52">
-            <v>0</v>
-          </cell>
-          <cell r="D52">
-            <v>0</v>
-          </cell>
-          <cell r="E52">
-            <v>0</v>
-          </cell>
-          <cell r="F52">
-            <v>0</v>
-          </cell>
-          <cell r="G52">
-            <v>0</v>
-          </cell>
-          <cell r="H52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>2</v>
-          </cell>
-          <cell r="C53">
-            <v>28</v>
-          </cell>
-          <cell r="D53">
-            <v>0</v>
-          </cell>
-          <cell r="E53">
-            <v>1</v>
-          </cell>
-          <cell r="F53">
-            <v>2</v>
-          </cell>
-          <cell r="G53">
-            <v>52</v>
-          </cell>
-          <cell r="H53">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>3</v>
-          </cell>
-          <cell r="C54">
-            <v>0</v>
-          </cell>
-          <cell r="D54">
-            <v>0</v>
-          </cell>
-          <cell r="E54">
-            <v>0</v>
-          </cell>
-          <cell r="F54">
-            <v>0</v>
-          </cell>
-          <cell r="G54">
-            <v>0</v>
-          </cell>
-          <cell r="H54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>4</v>
-          </cell>
-          <cell r="C55">
-            <v>14</v>
-          </cell>
-          <cell r="D55">
-            <v>5</v>
-          </cell>
-          <cell r="E55">
-            <v>10</v>
-          </cell>
-          <cell r="F55">
-            <v>40</v>
-          </cell>
-          <cell r="G55">
-            <v>15</v>
-          </cell>
-          <cell r="H55">
-            <v>66</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>5</v>
-          </cell>
-          <cell r="C56">
-            <v>28</v>
-          </cell>
-          <cell r="D56">
-            <v>3</v>
-          </cell>
-          <cell r="E56">
-            <v>0</v>
-          </cell>
-          <cell r="F56">
-            <v>0</v>
-          </cell>
-          <cell r="G56">
-            <v>1</v>
-          </cell>
-          <cell r="H56">
-            <v>49</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>6</v>
-          </cell>
-          <cell r="C57">
-            <v>0</v>
-          </cell>
-          <cell r="D57">
-            <v>0</v>
-          </cell>
-          <cell r="E57">
-            <v>0</v>
-          </cell>
-          <cell r="F57">
-            <v>0</v>
-          </cell>
-          <cell r="G57">
-            <v>0</v>
-          </cell>
-          <cell r="H57">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>7</v>
-          </cell>
-          <cell r="C58">
-            <v>0</v>
-          </cell>
-          <cell r="D58">
-            <v>0</v>
-          </cell>
-          <cell r="E58">
-            <v>0</v>
-          </cell>
-          <cell r="F58">
-            <v>0</v>
-          </cell>
-          <cell r="G58">
-            <v>0</v>
-          </cell>
-          <cell r="H58">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>8</v>
-          </cell>
-          <cell r="C59">
-            <v>0</v>
-          </cell>
-          <cell r="D59">
-            <v>0</v>
-          </cell>
-          <cell r="E59">
-            <v>0</v>
-          </cell>
-          <cell r="F59">
-            <v>0</v>
-          </cell>
-          <cell r="G59">
-            <v>1</v>
-          </cell>
-          <cell r="H59">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>9</v>
-          </cell>
-          <cell r="C60">
-            <v>0</v>
-          </cell>
-          <cell r="D60">
-            <v>4</v>
-          </cell>
-          <cell r="E60">
-            <v>0</v>
-          </cell>
-          <cell r="F60">
-            <v>0</v>
-          </cell>
-          <cell r="G60">
-            <v>51</v>
-          </cell>
-          <cell r="H60">
-            <v>20</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>10</v>
-          </cell>
-          <cell r="C61">
-            <v>0</v>
-          </cell>
-          <cell r="D61">
-            <v>0</v>
-          </cell>
-          <cell r="E61">
-            <v>0</v>
-          </cell>
-          <cell r="F61">
-            <v>0</v>
-          </cell>
-          <cell r="G61">
-            <v>0</v>
-          </cell>
-          <cell r="H61">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>11</v>
-          </cell>
-          <cell r="C62">
-            <v>0</v>
-          </cell>
-          <cell r="D62">
-            <v>0</v>
-          </cell>
-          <cell r="E62">
-            <v>0</v>
-          </cell>
-          <cell r="F62">
-            <v>0</v>
-          </cell>
-          <cell r="G62">
-            <v>0</v>
-          </cell>
-          <cell r="H62">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>12</v>
-          </cell>
-          <cell r="C63">
-            <v>185</v>
-          </cell>
-          <cell r="D63">
-            <v>243</v>
-          </cell>
-          <cell r="E63">
-            <v>244</v>
-          </cell>
-          <cell r="F63">
-            <v>213</v>
-          </cell>
-          <cell r="G63">
-            <v>135</v>
-          </cell>
-          <cell r="H63">
-            <v>87</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4345,7 +3736,7 @@
   <dimension ref="A3:AP63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V55" sqref="V55"/>
+      <selection activeCell="Y58" sqref="Y58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7293,8 +6684,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <f t="shared" ref="F39:G49" si="12">SUM(A39,B39,C39,D39,E39)</f>
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>34</v>
@@ -7317,8 +6707,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7341,8 +6730,7 @@
         <v>132</v>
       </c>
       <c r="F41">
-        <f t="shared" si="12"/>
-        <v>372</v>
+        <v>132</v>
       </c>
       <c r="G41">
         <v>133</v>
@@ -7365,8 +6753,7 @@
         <v>28</v>
       </c>
       <c r="F42">
-        <f t="shared" si="12"/>
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="G42">
         <v>31</v>
@@ -7389,8 +6776,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -7413,8 +6799,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -7437,8 +6822,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -7461,8 +6845,7 @@
         <v>5</v>
       </c>
       <c r="F46">
-        <f t="shared" si="12"/>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -7485,8 +6868,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -7509,8 +6891,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <f t="shared" si="12"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -7533,8 +6914,7 @@
         <v>47</v>
       </c>
       <c r="F49">
-        <f t="shared" si="12"/>
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="G49">
         <v>32</v>
@@ -7600,8 +6980,7 @@
         <v>28</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:G63" si="13">SUM(A53,B53,C53,D53,E53)</f>
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G53">
         <v>53</v>
@@ -7624,8 +7003,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -7648,8 +7026,7 @@
         <v>59</v>
       </c>
       <c r="F55">
-        <f t="shared" si="13"/>
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="G55">
         <v>67</v>
@@ -7672,8 +7049,7 @@
         <v>13</v>
       </c>
       <c r="F56">
-        <f t="shared" si="13"/>
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="G56">
         <v>22</v>
@@ -7696,8 +7072,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7720,8 +7095,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <f t="shared" si="13"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -7744,8 +7118,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -7768,8 +7141,7 @@
         <v>25</v>
       </c>
       <c r="F60">
-        <f t="shared" si="13"/>
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G60">
         <v>40</v>
@@ -7792,8 +7164,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -7816,8 +7187,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <f t="shared" si="13"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -7840,8 +7210,7 @@
         <v>130</v>
       </c>
       <c r="F63">
-        <f t="shared" si="13"/>
-        <v>352</v>
+        <v>114</v>
       </c>
       <c r="G63">
         <v>73</v>
